--- a/xlsx_files/spond.xlsx
+++ b/xlsx_files/spond.xlsx
@@ -10,15 +10,15 @@
     <sheet name="For import" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$4:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$21</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
-  <si>
-    <t>Trening Uke 6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+  <si>
+    <t>Trening uke 6</t>
   </si>
   <si>
     <t>v.ps-2</t>
@@ -27,7 +27,10 @@
     <t>søn. 9. februar 12:00 - 14:00</t>
   </si>
   <si>
-    <t>Deltar (0)</t>
+    <t>Bergen Golfsenter</t>
+  </si>
+  <si>
+    <t>Deltar (12)</t>
   </si>
   <si>
     <t/>
@@ -36,52 +39,55 @@
     <t>Navn</t>
   </si>
   <si>
-    <t>Ikke svart (3)</t>
-  </si>
-  <si>
-    <t>Irina Karen Astorga</t>
-  </si>
-  <si>
-    <t>Ole Vaaler</t>
-  </si>
-  <si>
-    <t>Golf Bot</t>
-  </si>
-  <si>
-    <t>Kommer ikke (7)</t>
+    <t>Vebjørn Molvik Nilsen</t>
+  </si>
+  <si>
+    <t>sanne lunde</t>
+  </si>
+  <si>
+    <t>Tobias Nilsen</t>
+  </si>
+  <si>
+    <t>Emily Skeie</t>
+  </si>
+  <si>
+    <t>Ine Amalie Fjær</t>
+  </si>
+  <si>
+    <t>Steffen Synnevåg</t>
+  </si>
+  <si>
+    <t>Sander Bjørnsen</t>
+  </si>
+  <si>
+    <t>Oda Fossdal</t>
+  </si>
+  <si>
+    <t>Thomas Barth</t>
+  </si>
+  <si>
+    <t>Hanne Folvik</t>
+  </si>
+  <si>
+    <t>Emilie Heggen</t>
+  </si>
+  <si>
+    <t>Vera Ellingsen</t>
+  </si>
+  <si>
+    <t>Ikke svart (0)</t>
+  </si>
+  <si>
+    <t>Kommer ikke (2)</t>
   </si>
   <si>
     <t>Begrunnelse</t>
   </si>
   <si>
-    <t>Sander Selnes</t>
-  </si>
-  <si>
-    <t>Martin Arnesen</t>
-  </si>
-  <si>
-    <t>Sara Sørholt</t>
-  </si>
-  <si>
-    <t>Har ikke tid kl 12-14:(</t>
-  </si>
-  <si>
-    <t>Håvard Hjelmeland</t>
-  </si>
-  <si>
-    <t>Familiebesøk</t>
-  </si>
-  <si>
-    <t>Magne Skrede</t>
-  </si>
-  <si>
-    <t>Familieplans://</t>
-  </si>
-  <si>
-    <t>Elle Wiig Eide</t>
-  </si>
-  <si>
-    <t>Brynjar Gjerding</t>
+    <t>Øyvind Øyri</t>
+  </si>
+  <si>
+    <t>Mathias Hong</t>
   </si>
   <si>
     <t>Status</t>
@@ -90,7 +96,7 @@
     <t>Svartidspunkt</t>
   </si>
   <si>
-    <t>Ikke svart</t>
+    <t>Kommer</t>
   </si>
   <si>
     <t>Kan ikke komme</t>
@@ -509,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -594,20 +600,27 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.14453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,118 +636,133 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+    <row r="3">
+      <c r="A3" s="12" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>4</v>
+      <c r="A7" s="27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
+      <c r="A8" s="35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
+      <c r="A13" s="27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
+      <c r="A14" s="35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="28"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="36"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="35" t="s">
+      <c r="B20" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="36"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="27" t="s">
+      <c r="B23" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="28"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="28"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -742,14 +770,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.08203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -766,123 +794,182 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
-        <v>24</v>
+      <c r="A6" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="C6" t="n" s="37">
+        <v>45690.60652581019</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
-        <v>24</v>
+      <c r="A7" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="C7" t="n" s="38">
+        <v>45690.60664302083</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>24</v>
+      <c r="A8" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="C8" t="n" s="39">
+        <v>45690.607643773146</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n" s="40">
+        <v>45690.63230711805</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
-        <v>25</v>
+      <c r="A10" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n" s="41">
+        <v>45690.964136400464</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="n" s="37">
-        <v>45691.690216979165</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" t="n" s="42">
+        <v>45691.47631010417</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="n" s="38">
-        <v>45691.69174863426</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" t="n" s="43">
+        <v>45691.533964166665</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="n" s="39">
-        <v>45691.69310159722</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" t="n" s="44">
+        <v>45691.53904851852</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n" s="45">
+        <v>45691.55978238426</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="n" s="40">
-        <v>45691.71026189815</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="C15" t="n" s="46">
+        <v>45691.62539267361</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="n" s="47">
+        <v>45691.63457806713</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="n" s="41">
-        <v>45691.74616512731</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="n" s="42">
-        <v>45691.74679990741</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="n" s="43">
-        <v>45693.59534890046</v>
+      <c r="C17" t="n" s="48">
+        <v>45691.684858645836</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="n" s="49">
+        <v>45691.63142116898</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="n" s="50">
+        <v>45691.637573657405</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:C16"/>
-  <mergeCells count="2">
+  <autoFilter ref="A5:C21"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
